--- a/test_file.xlsx
+++ b/test_file.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
     <t>ID_uniprot</t>
   </si>
@@ -154,15 +154,6 @@
   </si>
   <si>
     <t>[370,490]</t>
-  </si>
-  <si>
-    <t>[70,180]</t>
-  </si>
-  <si>
-    <t>[60,170]</t>
-  </si>
-  <si>
-    <t>[80,190]</t>
   </si>
   <si>
     <t>P21291</t>
@@ -505,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,16 +600,16 @@
         <v>25</v>
       </c>
       <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -691,36 +682,19 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
         <v>48</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
